--- a/data/input/clientes.xlsx
+++ b/data/input/clientes.xlsx
@@ -1,16 +1,217 @@
 
-<file path=clientes/docProps/app.xml><?xml version="1.0" encoding="utf-8"?>
-<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties">
-  <Application>Microsoft Excel Compatible</Application>
-  <AppVersion>3.1</AppVersion>
-</Properties>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Descarga-SCT-Envio-Mails-Masivos\data\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D28B5F34-0CB9-44E6-9136-6EF1E931EAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6624E8C-DAAD-435F-A5B6-39F8064FC426}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
-<file path=clientes/docProps/core.xml><cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xsi:type="dcterms:W3CDTF">2024-09-27T14:37:31Z</dcterms:created><dcterms:modified xsi:type="dcterms:W3CDTF">2024-09-27T14:37:31Z</dcterms:modified></cp:coreProperties>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+  <si>
+    <t>CUIT para ingresar</t>
+  </si>
+  <si>
+    <t>CUIT representado</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
+    <t>Ubicacion Descarga</t>
+  </si>
+  <si>
+    <t>Posterior</t>
+  </si>
+  <si>
+    <t>Anterior</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>ACASTELLO, GRACIELA</t>
+  </si>
+  <si>
+    <t>ARMANDO, Daniel</t>
+  </si>
+  <si>
+    <t>BARONETTI, ALEJANDRO</t>
+  </si>
+  <si>
+    <t>BERESVIL, Pablo</t>
+  </si>
+  <si>
+    <t>BERGER, David</t>
+  </si>
+  <si>
+    <t>BERNASCONI, Guillermo</t>
+  </si>
+  <si>
+    <t>BERTONE MARTA</t>
+  </si>
+  <si>
+    <t>BERTONE, Carlos</t>
+  </si>
+  <si>
+    <t>BERTONE, Marcos</t>
+  </si>
+  <si>
+    <t>BERTONE, Mirta</t>
+  </si>
+  <si>
+    <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+  </si>
+  <si>
+    <t>ACAGRA364g</t>
+  </si>
+  <si>
+    <t>DArmando24</t>
+  </si>
+  <si>
+    <t>Baronetti2024</t>
+  </si>
+  <si>
+    <t>BPablo2024</t>
+  </si>
+  <si>
+    <t>Emilia2024</t>
+  </si>
+  <si>
+    <t>BGuillermo2024</t>
+  </si>
+  <si>
+    <t>mARCOS2024</t>
+  </si>
+  <si>
+    <t>2023mirtaB</t>
+  </si>
+  <si>
+    <t>Carlosafip2024</t>
+  </si>
+  <si>
+    <t>Estudio2023</t>
+  </si>
+</sst>
 </file>
 
-<file path=clientes/xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -20,44 +221,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -84,14 +285,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -118,6 +337,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -129,165 +366,501 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE085FBA-B98F-4CE6-A281-C467912F42F3}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>27143384107</v>
+      </c>
+      <c r="C2">
+        <v>27143384107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <f>IF(B1=B2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>IF(B2=B3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(F2,G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20205875450</v>
+      </c>
+      <c r="C3">
+        <v>20205875450</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="0">IF(B2=B3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="1">IF(B3=B4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="2">SUM(F3,G3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>20177141357</v>
+      </c>
+      <c r="C4">
+        <v>20177141357</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>20291157255</v>
+      </c>
+      <c r="C5">
+        <v>20291157255</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>20246845612</v>
+      </c>
+      <c r="C6">
+        <v>20246845612</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>20244103635</v>
+      </c>
+      <c r="C7">
+        <v>20244103635</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>27134761534</v>
+      </c>
+      <c r="C8">
+        <v>27134761534</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>20138544835</v>
+      </c>
+      <c r="C9">
+        <v>20138544835</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>20102436432</v>
+      </c>
+      <c r="C10">
+        <v>20102436432</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>27062379052</v>
+      </c>
+      <c r="C11">
+        <v>27062379052</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/input/clientes.xlsx
+++ b/data/input/clientes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,18 +478,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ACASTELLO, GRACIELA</t>
+          <t>BIANCOTTI, Juan</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27143384107</v>
+        <v>20329004385</v>
       </c>
       <c r="C2" t="n">
-        <v>27143384107</v>
+        <v>20329004385</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ACAGRA364g</t>
+          <t>Revancha02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,25 +503,27 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Clave o usuario incorrecto</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ARMANDO, Daniel</t>
+          <t>BIANCOTTI, Nicolás</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20205875450</v>
+        <v>20372606135</v>
       </c>
       <c r="C3" t="n">
-        <v>20205875450</v>
+        <v>20372606135</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DArmando24</t>
+          <t>Biancotti2024</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,27 +537,23 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Error autenticacion</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BARONETTI, ALEJANDRO</t>
+          <t>BIANCOTTI, Rubén</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20177141357</v>
+        <v>20127661627</v>
       </c>
       <c r="C4" t="n">
-        <v>20177141357</v>
+        <v>20127661627</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Baronetti2024</t>
+          <t>BIANCOTTIrr2024</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -578,18 +576,18 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BERESVIL, Pablo</t>
+          <t>BORGOGNO Luis</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20291157255</v>
+        <v>20313797601</v>
       </c>
       <c r="C5" t="n">
-        <v>20291157255</v>
+        <v>20313797601</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BPablo2024</t>
+          <t>Estudio2024</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -612,18 +610,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BERGER, David</t>
+          <t>BORGOGNO, Jorge Lorenzo</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20246845612</v>
+        <v>23115003259</v>
       </c>
       <c r="C6" t="n">
-        <v>20246845612</v>
+        <v>23115003259</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Emilia2024</t>
+          <t>jORGEB2024</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,18 +644,18 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BERNASCONI, Guillermo</t>
+          <t>BORN, Jorge</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20244103635</v>
+        <v>20241626637</v>
       </c>
       <c r="C7" t="n">
-        <v>20244103635</v>
+        <v>20241626637</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BGuillermo2024</t>
+          <t>Coquis1975</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,25 +671,25 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Error autenticacion</t>
+          <t>Clave o usuario incorrecto</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BERTONE MARTA</t>
+          <t>BORN, Oscar</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27134761534</v>
+        <v>20178826280</v>
       </c>
       <c r="C8" t="n">
-        <v>27134761534</v>
+        <v>20178826280</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Estudio2023</t>
+          <t>Oscar20213</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -714,18 +712,18 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BERTONE, Carlos</t>
+          <t>BOSTICO, Juan Cruz</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20138544835</v>
+        <v>20331049698</v>
       </c>
       <c r="C9" t="n">
-        <v>20138544835</v>
+        <v>20331049698</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Carlosafip2024</t>
+          <t>Estudio2024</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -748,18 +746,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BERTONE, Marcos</t>
+          <t>BRACCO OSVALDO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20102436432</v>
+        <v>20106361747</v>
       </c>
       <c r="C10" t="n">
-        <v>20102436432</v>
+        <v>20106361747</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>mARCOS2024</t>
+          <t>OBracco63634</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -782,18 +780,18 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BERTONE, Mirta</t>
+          <t>BRUERA BELKYS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27062379052</v>
+        <v>27041004024</v>
       </c>
       <c r="C11" t="n">
-        <v>27062379052</v>
+        <v>27041004024</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023mirtaB</t>
+          <t>Laabuela2024</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -810,6 +808,2638 @@
       <c r="H11" t="inlineStr">
         <is>
           <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BRUNO MARIA VIRGINIA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>27139254916</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27139254916</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Febrero2024</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BURGI OMAR</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20115710037</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20115710037</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Omarbu2024</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CASSINERIO CARLOS ALBERTO</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20108667134</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20108667134</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Estudio2024</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CONTARDE JORGE</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>20132420921</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20132420921</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Contarde2024</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CONTARDE MATIAS</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20349350387</v>
+      </c>
+      <c r="C16" t="n">
+        <v>20349350387</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>mATIAS2023</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Error volver a iniciar sesion</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CRAVERO Vilma Esther</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>27058696388</v>
+      </c>
+      <c r="C17" t="n">
+        <v>27058696388</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8ldW&gt;m43f9=B</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>De Diego Maria Laura</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>27305018487</v>
+      </c>
+      <c r="C18" t="n">
+        <v>27305018487</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Estudio2023</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Delfabro Cristian</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>20222144397</v>
+      </c>
+      <c r="C19" t="n">
+        <v>20222144397</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Cristian2023</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DELLASANTA, Oscar</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>20163036550</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20163036550</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Oscar55OscarDE24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Fassi Alberto</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20170895658</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20170895658</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Alberto2024</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FERRERO FEDERICO</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>20285770018</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20285770018</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Diego01800</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FRANCESCONI, Marco Damián</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>20275663973</v>
+      </c>
+      <c r="C23" t="n">
+        <v>20275663973</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>FMarco2024</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FUX Daniela</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>27340827061</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27340827061</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Cosmebu2023</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FUX Gonzalo</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>20308663206</v>
+      </c>
+      <c r="C25" t="n">
+        <v>20308663206</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Lolafux2024</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FUX Mario (Solo BP)</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>20119506965</v>
+      </c>
+      <c r="C26" t="n">
+        <v>20119506965</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Fuxmario2023</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GALOPIN, Raquel</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>27145257935</v>
+      </c>
+      <c r="C27" t="n">
+        <v>27145257935</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Estudio2024</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GARETTO, Alfredo</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>20298095727</v>
+      </c>
+      <c r="C28" t="n">
+        <v>20298095727</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GAlfredo2024</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GISBERT, Luis</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>20173958863</v>
+      </c>
+      <c r="C29" t="n">
+        <v>20173958863</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LGisbert396</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>GISBERT, Silvia</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>27218219794</v>
+      </c>
+      <c r="C30" t="n">
+        <v>27218219794</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Lancho2023</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GONZALEZ, Rodrigo Jesús</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>20248502704</v>
+      </c>
+      <c r="C31" t="n">
+        <v>20248502704</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4K6ysg*8!35&gt;</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GONZALEZ, Ruben</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>20062610337</v>
+      </c>
+      <c r="C32" t="n">
+        <v>20062610337</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>zI$33nW0M8iK</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>JACOBE JORGE</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>20169323586</v>
+      </c>
+      <c r="C33" t="n">
+        <v>20169323586</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Jacobe2024</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>JACOBE NICOLAS</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>20389816834</v>
+      </c>
+      <c r="C34" t="n">
+        <v>20389816834</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Nicolas2024</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LASINO, Sergio Reinaldo</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>20164454836</v>
+      </c>
+      <c r="C35" t="n">
+        <v>20164454836</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Profarmer2023</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LEHMANN JAQUELINA</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>27246535170</v>
+      </c>
+      <c r="C36" t="n">
+        <v>27246535170</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>JaqueLeh2024</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Lisi Gabriela</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>27160314066</v>
+      </c>
+      <c r="C37" t="n">
+        <v>27160314066</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Gabriela2024</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Lorenzatti Alicia</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>27130465795</v>
+      </c>
+      <c r="C38" t="n">
+        <v>27130465795</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Rafaela1456</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Lorenzatti Elida</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>20246845612</v>
+      </c>
+      <c r="C39" t="n">
+        <v>27031896229</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Emilia2024</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LORENZATTI STELLA</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>27146539705</v>
+      </c>
+      <c r="C40" t="n">
+        <v>27146539705</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Lztagro2024</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>LORENZATTI, MARIA ELENA</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>23201907284</v>
+      </c>
+      <c r="C41" t="n">
+        <v>23201907284</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>MaElena2024</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MANTOVANI, Eduardo</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>20171140723</v>
+      </c>
+      <c r="C42" t="n">
+        <v>20171140723</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mantovani2023</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MASSONI Hector Francisco</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>20085077407</v>
+      </c>
+      <c r="C43" t="n">
+        <v>20085077407</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Hector2024</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MELANO SUSANA</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>27121427953</v>
+      </c>
+      <c r="C44" t="n">
+        <v>27121427953</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SMelano2024</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MEZZENASCO, Mirta</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>27123041696</v>
+      </c>
+      <c r="C45" t="n">
+        <v>27123041696</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>EstudioR2024</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MOSSUZ ANTONELA</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>27310685815</v>
+      </c>
+      <c r="C46" t="n">
+        <v>27310685815</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Estudio2023</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MOSSUZ CLAUDIO (SOLO BP)</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>20128843613</v>
+      </c>
+      <c r="C47" t="n">
+        <v>20128843613</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Casas20242casa</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MOSSUZ MAURO</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>20332792122</v>
+      </c>
+      <c r="C48" t="n">
+        <v>20332792122</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>MauroFiscal20231130</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NAHMIYAS, NICOLAS</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>20360113877</v>
+      </c>
+      <c r="C49" t="n">
+        <v>20360113877</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Rafaela2024</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NAVONE SOFIA</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>23360551954</v>
+      </c>
+      <c r="C50" t="n">
+        <v>23360551954</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SofiaN2024</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NAVONE VIRGINIA</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>27328991913</v>
+      </c>
+      <c r="C51" t="n">
+        <v>27328991913</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>VirginiaN2024</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NAVONE, Carlos Alberto</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>20112123440</v>
+      </c>
+      <c r="C52" t="n">
+        <v>20112123440</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Navonec2023</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>OSENDA Enzo</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>20405572592</v>
+      </c>
+      <c r="C53" t="n">
+        <v>20405572592</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>EnzoOarenales6651</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>OSENDA LORENA</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>27346739954</v>
+      </c>
+      <c r="C54" t="n">
+        <v>27346739954</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>LorenaOsenda2024</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>OSENDA Luciano</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>20368873307</v>
+      </c>
+      <c r="C55" t="n">
+        <v>20368873307</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Luciano2024#</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>OSENDA, Lucio Marcelino</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>20146539425</v>
+      </c>
+      <c r="C56" t="n">
+        <v>20146539425</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>665Osenlucioo2024</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PAGLIAROLI GINO</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>20935609403</v>
+      </c>
+      <c r="C57" t="n">
+        <v>20935609403</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Ginopa2024</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PEROTTI, Hildo</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>27054407837</v>
+      </c>
+      <c r="C58" t="n">
+        <v>20062770946</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Estudio2024</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PORTA CARINA</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>27230809491</v>
+      </c>
+      <c r="C59" t="n">
+        <v>27230809491</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Cariporta2023</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PORTA DIEGO</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>20240664039</v>
+      </c>
+      <c r="C60" t="n">
+        <v>20240664039</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Brisa123456789</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PRONE, Nicolas</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>20293499099</v>
+      </c>
+      <c r="C61" t="n">
+        <v>20293499099</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>ProneNico2024</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PRONE, Norberto Alejandro</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>20127421200</v>
+      </c>
+      <c r="C62" t="n">
+        <v>20127421200</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Estudio2024</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>QUINTANA, Alfredo</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>20111155500</v>
+      </c>
+      <c r="C63" t="n">
+        <v>20111155500</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>((#Urquiza#7411))</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>RADYK, ALBERTO</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>20117847811</v>
+      </c>
+      <c r="C64" t="n">
+        <v>20117847811</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Albertora24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>RESCONI, Luis María</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>20049826533</v>
+      </c>
+      <c r="C65" t="n">
+        <v>20049826533</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Resconi2246</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>RIVAROSSA FLORENTINO</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>20113062518</v>
+      </c>
+      <c r="C66" t="n">
+        <v>20113062518</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Estudio2024</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SAPINO Roberto</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>20106363669</v>
+      </c>
+      <c r="C67" t="n">
+        <v>20106363669</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Roberto2024</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SARMIENTO, Victor</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>23117583309</v>
+      </c>
+      <c r="C68" t="n">
+        <v>23117583309</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>VictorSar2024</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SARTORI MARIA ROSA</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>27138812354</v>
+      </c>
+      <c r="C69" t="n">
+        <v>27138812354</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Estudio2023</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Seffino Marcelo</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>23163038919</v>
+      </c>
+      <c r="C70" t="n">
+        <v>23163038919</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Marcelo2024</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SEGNINI, Gustavo</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>20131338245</v>
+      </c>
+      <c r="C71" t="n">
+        <v>20131338245</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Z13jm7Vr6m</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Clave o usuario incorrecto</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SEIJO, Inés</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>23124467004</v>
+      </c>
+      <c r="C72" t="n">
+        <v>23124467004</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Estudio2024</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>STUBER, German</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>20307649226</v>
+      </c>
+      <c r="C73" t="n">
+        <v>20307649226</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2024Stuberg</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>STUBER, Guillermo</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>23332979469</v>
+      </c>
+      <c r="C74" t="n">
+        <v>23332979469</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2024StuberGmo</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>STUBER, Ricardo</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>20226429833</v>
+      </c>
+      <c r="C75" t="n">
+        <v>20226429833</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>StuberR8333</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Clave o usuario incorrecto</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>STUBER, Ruben</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>20062981432</v>
+      </c>
+      <c r="C76" t="n">
+        <v>20062981432</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Estudio2022</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Clave o usuario incorrecto</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TRINCA JUAN CARLOS</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>23162006789</v>
+      </c>
+      <c r="C77" t="n">
+        <v>23162006789</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Jctrinca24</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TURCO, DIEGO</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>20161700860</v>
+      </c>
+      <c r="C78" t="n">
+        <v>20161700860</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>TurcDieg2024</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>TURCO, Guillermo</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>20165740700</v>
+      </c>
+      <c r="C79" t="n">
+        <v>20165740700</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>GuillermoT36</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>VALENCIA FRANCISCO</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>20319816187</v>
+      </c>
+      <c r="C80" t="n">
+        <v>20319816187</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Valencia2024</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Error autenticacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>VALENTINO FRANCISCO</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>20321860401</v>
+      </c>
+      <c r="C81" t="n">
+        <v>20321860401</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Francisco1986</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>VALENTINO MARCOS D.</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>23083223979</v>
+      </c>
+      <c r="C82" t="n">
+        <v>23083223979</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Imperio2257</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Error al iniciar sesión</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>VALENTINO NICOLAS</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>20295204681</v>
+      </c>
+      <c r="C83" t="n">
+        <v>20295204681</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Valentino2257</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Error al iniciar sesión</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>VILLAR, Bernardo</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>20111848077</v>
+      </c>
+      <c r="C84" t="n">
+        <v>20111848077</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Blanca2024</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Error al iniciar sesión</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>VILLAR, Tomás</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>23304253789</v>
+      </c>
+      <c r="C85" t="n">
+        <v>23304253789</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Estudio2024</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Error al iniciar sesión</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>WAIBSNADER MARCELO</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>20176486865</v>
+      </c>
+      <c r="C86" t="n">
+        <v>20176486865</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>MarceW868667</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Error al iniciar sesión</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>WILSON CARLOS (H)</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>20169574597</v>
+      </c>
+      <c r="C87" t="n">
+        <v>20169574597</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Carloswil24</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Error al iniciar sesión</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WILSON, GUILLERMO </t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>20345578707</v>
+      </c>
+      <c r="C88" t="n">
+        <v>20345578707</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>GWilson2024</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Error al iniciar sesión</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ZIMMERMANN, Ovidio</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>20109770389</v>
+      </c>
+      <c r="C89" t="n">
+        <v>20109770389</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Estudio2024</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Error al iniciar sesión</t>
         </is>
       </c>
     </row>

--- a/data/input/clientes.xlsx
+++ b/data/input/clientes.xlsx
@@ -5,25 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Descarga-SCT-Envio-Mails-Masivos\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Sublime Merge\Descarga-SCT-Envio-Mails-Masivos\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF5C0A-212F-4E0A-814D-8BB70BA328AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF484567-23D8-42E7-BE91-7FD8306E7F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$19</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Cliente</t>
   </si>
@@ -49,115 +46,64 @@
     <t>Error</t>
   </si>
   <si>
+    <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
+  </si>
+  <si>
+    <t>PORTA CARINA</t>
+  </si>
+  <si>
+    <t>Cariporta2023</t>
+  </si>
+  <si>
+    <t>PORTA DIEGO</t>
+  </si>
+  <si>
+    <t>Brisa123456789</t>
+  </si>
+  <si>
+    <t>VALENTINO MARCOS D.</t>
+  </si>
+  <si>
+    <t>Imperio2257</t>
+  </si>
+  <si>
+    <t>Clave o usuario incorrecto</t>
+  </si>
+  <si>
+    <t>SEGNINI, Gustavo</t>
+  </si>
+  <si>
+    <t>Z13jm7Vr6m</t>
+  </si>
+  <si>
+    <t>STUBER, Ricardo</t>
+  </si>
+  <si>
+    <t>StuberR8333</t>
+  </si>
+  <si>
+    <t>STUBER, Ruben</t>
+  </si>
+  <si>
+    <t>Estudio2022</t>
+  </si>
+  <si>
     <t>BIANCOTTI, Juan</t>
   </si>
   <si>
     <t>Revancha02</t>
   </si>
   <si>
-    <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
-  </si>
-  <si>
-    <t>Clave o usuario incorrecto</t>
-  </si>
-  <si>
-    <t>Estudio2024</t>
-  </si>
-  <si>
     <t>BORN, Jorge</t>
   </si>
   <si>
     <t>Coquis1975</t>
   </si>
   <si>
-    <t>FUX Mario (Solo BP)</t>
-  </si>
-  <si>
-    <t>Fuxmario2023</t>
-  </si>
-  <si>
-    <t>MEZZENASCO, Mirta</t>
-  </si>
-  <si>
-    <t>EstudioR2024</t>
-  </si>
-  <si>
-    <t>PORTA CARINA</t>
-  </si>
-  <si>
-    <t>Cariporta2023</t>
-  </si>
-  <si>
-    <t>PORTA DIEGO</t>
-  </si>
-  <si>
-    <t>Brisa123456789</t>
-  </si>
-  <si>
-    <t>SEGNINI, Gustavo</t>
-  </si>
-  <si>
-    <t>Z13jm7Vr6m</t>
-  </si>
-  <si>
-    <t>STUBER, Ricardo</t>
-  </si>
-  <si>
-    <t>StuberR8333</t>
-  </si>
-  <si>
-    <t>STUBER, Ruben</t>
-  </si>
-  <si>
-    <t>Estudio2022</t>
-  </si>
-  <si>
-    <t>VALENTINO FRANCISCO</t>
-  </si>
-  <si>
-    <t>Francisco1986</t>
-  </si>
-  <si>
-    <t>VALENTINO MARCOS D.</t>
-  </si>
-  <si>
-    <t>Imperio2257</t>
-  </si>
-  <si>
-    <t>VALENTINO NICOLAS</t>
-  </si>
-  <si>
-    <t>Valentino2257</t>
-  </si>
-  <si>
-    <t>VILLAR, Bernardo</t>
-  </si>
-  <si>
-    <t>Blanca2024</t>
-  </si>
-  <si>
-    <t>VILLAR, Tomás</t>
-  </si>
-  <si>
-    <t>WAIBSNADER MARCELO</t>
-  </si>
-  <si>
-    <t>MarceW868667</t>
-  </si>
-  <si>
-    <t>WILSON CARLOS (H)</t>
-  </si>
-  <si>
-    <t>Carloswil24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WILSON, GUILLERMO </t>
-  </si>
-  <si>
-    <t>GWilson2024</t>
-  </si>
-  <si>
-    <t>ZIMMERMANN, Ovidio</t>
+    <t>TORASSO, Pablo</t>
+  </si>
+  <si>
+    <t>Cambiar clave fiscal</t>
   </si>
 </sst>
 </file>
@@ -187,7 +133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,18 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -569,19 +512,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>20329004385</v>
+        <v>27230809491</v>
       </c>
       <c r="C2">
-        <v>20329004385</v>
+        <v>27230809491</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -590,24 +533,24 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>20241626637</v>
+        <v>20240664039</v>
       </c>
       <c r="C3">
-        <v>20241626637</v>
+        <v>20240664039</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -616,116 +559,128 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>23083223979</v>
+      </c>
+      <c r="C4">
+        <v>23083223979</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4">
-        <v>20119506965</v>
-      </c>
-      <c r="C4">
-        <v>20119506965</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>20131338245</v>
+      </c>
+      <c r="C5">
+        <v>20131338245</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>27123041696</v>
-      </c>
-      <c r="C5">
-        <v>27123041696</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>20226429833</v>
+      </c>
+      <c r="C6">
+        <v>20226429833</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>27230809491</v>
-      </c>
-      <c r="C6">
-        <v>27230809491</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>20062981432</v>
+      </c>
+      <c r="C7">
+        <v>20062981432</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
-        <v>20240664039</v>
-      </c>
-      <c r="C7">
-        <v>20240664039</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>20329004385</v>
+      </c>
+      <c r="C8">
+        <v>20329004385</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
-        <v>20131338245</v>
-      </c>
-      <c r="C8">
-        <v>20131338245</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -734,24 +689,24 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>20241626637</v>
+      </c>
+      <c r="C9">
+        <v>20241626637</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="B9">
-        <v>20226429833</v>
-      </c>
-      <c r="C9">
-        <v>20226429833</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -760,239 +715,20 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>20062981432</v>
-      </c>
-      <c r="C10">
-        <v>20062981432</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>20321860401</v>
-      </c>
-      <c r="C11">
-        <v>20321860401</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>23083223979</v>
-      </c>
-      <c r="C12">
-        <v>23083223979</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>20295204681</v>
-      </c>
-      <c r="C13">
-        <v>20295204681</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>20111848077</v>
-      </c>
-      <c r="C14">
-        <v>20111848077</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15">
-        <v>23304253789</v>
-      </c>
-      <c r="C15">
-        <v>23304253789</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>20176486865</v>
-      </c>
-      <c r="C16">
-        <v>20176486865</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>20169574597</v>
-      </c>
-      <c r="C17">
-        <v>20169574597</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18">
-        <v>20345578707</v>
-      </c>
-      <c r="C18">
-        <v>20345578707</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19">
-        <v>20109770389</v>
-      </c>
-      <c r="C19">
-        <v>20109770389</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
         <v>0</v>
       </c>
     </row>

--- a/data/input/clientes.xlsx
+++ b/data/input/clientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Sublime Merge\Descarga-SCT-Envio-Mails-Masivos\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\-Impuestos\Anticipos-SCT-Tributaria\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF484567-23D8-42E7-BE91-7FD8306E7F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0B1A59-5F93-4AF9-AD73-997B88C348D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-30" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Cliente</t>
   </si>
@@ -34,83 +34,59 @@
     <t>Contraseña</t>
   </si>
   <si>
-    <t>Ubicacion Descarga</t>
+    <t>Ubicacion descarga</t>
+  </si>
+  <si>
+    <t>Anterior</t>
   </si>
   <si>
     <t>Posterior</t>
   </si>
   <si>
-    <t>Anterior</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
-    <t>C:/Program Files/Sublime Merge/Descarga-SCT-Envio-Mails-Masivos/data/input/Deudas</t>
-  </si>
-  <si>
-    <t>PORTA CARINA</t>
-  </si>
-  <si>
-    <t>Cariporta2023</t>
-  </si>
-  <si>
-    <t>PORTA DIEGO</t>
-  </si>
-  <si>
-    <t>Brisa123456789</t>
-  </si>
-  <si>
-    <t>VALENTINO MARCOS D.</t>
-  </si>
-  <si>
-    <t>Imperio2257</t>
-  </si>
-  <si>
-    <t>Clave o usuario incorrecto</t>
-  </si>
-  <si>
-    <t>SEGNINI, Gustavo</t>
-  </si>
-  <si>
-    <t>Z13jm7Vr6m</t>
-  </si>
-  <si>
-    <t>STUBER, Ricardo</t>
-  </si>
-  <si>
-    <t>StuberR8333</t>
-  </si>
-  <si>
-    <t>STUBER, Ruben</t>
-  </si>
-  <si>
-    <t>Estudio2022</t>
-  </si>
-  <si>
-    <t>BIANCOTTI, Juan</t>
-  </si>
-  <si>
-    <t>Revancha02</t>
-  </si>
-  <si>
-    <t>BORN, Jorge</t>
-  </si>
-  <si>
-    <t>Coquis1975</t>
-  </si>
-  <si>
-    <t>TORASSO, Pablo</t>
-  </si>
-  <si>
-    <t>Cambiar clave fiscal</t>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Domingo Marcos Valentino</t>
+  </si>
+  <si>
+    <t>Imperio2024</t>
+  </si>
+  <si>
+    <t>Victor Hugo Sarmiento</t>
+  </si>
+  <si>
+    <t>VictorSar2024</t>
+  </si>
+  <si>
+    <t>Hector Francisco Massoni</t>
+  </si>
+  <si>
+    <t>Hector2024</t>
+  </si>
+  <si>
+    <t>Daniel Omar Armando</t>
+  </si>
+  <si>
+    <t>DArmando25</t>
+  </si>
+  <si>
+    <t>Marcos Luis Bertone</t>
+  </si>
+  <si>
+    <t>mARCOS2025</t>
+  </si>
+  <si>
+    <t>C:/Proyectos/Anticipos-SCT-Tributaria/data/input/Deudas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,20 +98,21 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF10101B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -170,7 +147,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,18 +450,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,22 +490,25 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>27230809491</v>
+        <v>23083223979</v>
       </c>
       <c r="C2">
-        <v>27230809491</v>
+        <v>23083223979</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -532,25 +516,22 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>20240664039</v>
+        <v>23117583309</v>
       </c>
       <c r="C3">
-        <v>20240664039</v>
+        <v>23117583309</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -558,25 +539,22 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>23083223979</v>
+        <v>20085077407</v>
       </c>
       <c r="C4">
-        <v>23083223979</v>
+        <v>20085077407</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -584,151 +562,50 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>20205875450</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20205875450</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>20131338245</v>
-      </c>
-      <c r="C5">
-        <v>20131338245</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6">
+        <v>20102436432</v>
+      </c>
+      <c r="C6">
+        <v>20102436432</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>20226429833</v>
-      </c>
-      <c r="C6">
-        <v>20226429833</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>20062981432</v>
-      </c>
-      <c r="C7">
-        <v>20062981432</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>20329004385</v>
-      </c>
-      <c r="C8">
-        <v>20329004385</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>20241626637</v>
-      </c>
-      <c r="C9">
-        <v>20241626637</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
         <v>0</v>
       </c>
     </row>
